--- a/children/observations-summary.xlsx
+++ b/children/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
   <si>
     <t>Profile</t>
   </si>
@@ -53,7 +53,7 @@
     <t>KLGatewayChildrenBodyHeight</t>
   </si>
   <si>
-    <t>null#vital-signs</t>
+    <t>Observation Category Codes#vital-signs</t>
   </si>
   <si>
     <t/>
@@ -62,13 +62,13 @@
     <t>null#8302-2</t>
   </si>
   <si>
-    <t>http://fhir.kl.dk/children/ValueSet/BodyheightSCTobservablesChildren (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ</t>
+    <t>http://hl7.dk/fhir/core/ValueSet/dk-core-IEEEBasicObservation (extensible)</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
   <si>
     <t>optional</t>
@@ -80,10 +80,52 @@
     <t>KLGatewayChildrenBodyWeight</t>
   </si>
   <si>
-    <t>null#29463-7</t>
-  </si>
-  <si>
-    <t>http://fhir.kl.dk/children/ValueSet/BodyweightSCTobservablesChildren (extensible)</t>
+    <t>null#29463-7, null#27113001</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>klgateway-children-communication</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorCommunication</t>
+  </si>
+  <si>
+    <t>null#653c2b0b-bb64-4906-888b-aea6fef3c3f8</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>CodeableConcept, Quantity</t>
+  </si>
+  <si>
+    <t>klgateway-children-exam-result</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenExamResult</t>
+  </si>
+  <si>
+    <t>null#363788007</t>
+  </si>
+  <si>
+    <t>prohibited</t>
+  </si>
+  <si>
+    <t>klgateway-children-feeding-observation</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenFeedingObservation</t>
+  </si>
+  <si>
+    <t>null#169740003, null#e61e4dab-54bb-4bf4-9b76-8d991cf4de08</t>
+  </si>
+  <si>
+    <t>dateTime, Period</t>
   </si>
   <si>
     <t>klgateway-children-headcircum</t>
@@ -92,10 +134,124 @@
     <t>KLGatewayChildrenHeadCircumference</t>
   </si>
   <si>
-    <t>null#9843-4</t>
-  </si>
-  <si>
-    <t>http://fhir.kl.dk/children/ValueSet/HeadCircumSCTobservablesChildren (extensible)</t>
+    <t>null#9843-4, null#363812007</t>
+  </si>
+  <si>
+    <t>klgateway-children-hearing</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorHearing</t>
+  </si>
+  <si>
+    <t>null#a22c4b53-b622-4394-ba13-910a7b0d7b0d</t>
+  </si>
+  <si>
+    <t>klgateway-children-motor-function</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorMotorFunction</t>
+  </si>
+  <si>
+    <t>null#e04f2ca1-888a-4671-a97a-371b525cd2a3</t>
+  </si>
+  <si>
+    <t>klgateway-children-nicotine</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorNicotine</t>
+  </si>
+  <si>
+    <t>null#76891f7b-cf49-4cb2-88d6-728a509eb75d</t>
+  </si>
+  <si>
+    <t>klgateway-children-nutrition</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorNutrition</t>
+  </si>
+  <si>
+    <t>null#e61e4dab-54bb-4bf4-9b76-8d991cf4de08</t>
+  </si>
+  <si>
+    <t>klgateway-children-parent-mental-status</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorParentMentalStatus</t>
+  </si>
+  <si>
+    <t>null#2c39af9f-8e45-4c88-962f-e7a9e2cd31b6</t>
+  </si>
+  <si>
+    <t>klgateway-children-parent-relationship</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorParentRelationship</t>
+  </si>
+  <si>
+    <t>null#763c6f21-5467-4713-82fb-716c9d0a1fdf</t>
+  </si>
+  <si>
+    <t>klgateway-children-parent-social-status</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorParentSocialStatus</t>
+  </si>
+  <si>
+    <t>null#58997614-ba43-4534-90bd-10c7e76802f4</t>
+  </si>
+  <si>
+    <t>klgateway-children-passive-smoking</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorPassiveSmoking</t>
+  </si>
+  <si>
+    <t>null#28972d4b-fea3-42ec-b2a5-e2a26f79b14d</t>
+  </si>
+  <si>
+    <t>klgateway-children-physical-activity</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorPhysicalActivity</t>
+  </si>
+  <si>
+    <t>null#b331fe02-a781-4abd-b6db-9331d6a69b15</t>
+  </si>
+  <si>
+    <t>klgateway-children-sight</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorSight</t>
+  </si>
+  <si>
+    <t>null#01fddd46-ed7c-423d-b191-ffdd977dd61e</t>
+  </si>
+  <si>
+    <t>klgateway-children-sleep</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorSleep</t>
+  </si>
+  <si>
+    <t>null#73f981f8-455a-4158-b435-7c6d83ab84da</t>
+  </si>
+  <si>
+    <t>klgateway-children-social-interaction</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorInteraction</t>
+  </si>
+  <si>
+    <t>null#68605f88-49fb-44b9-b327-86947af6aa93</t>
+  </si>
+  <si>
+    <t>klgateway-children-social-support-network</t>
+  </si>
+  <si>
+    <t>KLGatewayChildrenIndicatorSocialSupportNetwork</t>
+  </si>
+  <si>
+    <t>null#7e7fab2f-278a-4b14-9bc9-efc36fffcba5</t>
   </si>
 </sst>
 </file>
@@ -229,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -322,13 +478,13 @@
         <v>22</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>19</v>
@@ -348,7 +504,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
@@ -360,18 +516,578 @@
         <v>27</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H4" t="s" s="2">
+      <c r="H7" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="I4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s" s="2">
+      <c r="I7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/children/observations-summary.xlsx
+++ b/children/observations-summary.xlsx
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>19</v>

--- a/children/observations-summary.xlsx
+++ b/children/observations-summary.xlsx
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>19</v>
